--- a/Einführung in die Forschungsmethoden der Psychologie und Psychotherapie_Termine.xlsx
+++ b/Einführung in die Forschungsmethoden der Psychologie und Psychotherapie_Termine.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephangoerigk/Desktop/Universität/CFH/Lehre/Bachelor/Einführung in die Forschungsmethoden der Psychologie und Psychotherapie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephangoerigk/Desktop/Universität/CFH/Lehre/Bachelor/Einführung in die Forschungsmethoden der Psychologie und Psychotherapie/EFPP_Folien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4586EC1-C725-A941-8A47-D93170F0F301}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF564A1-F468-6E4E-A341-B2B2212CC92F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38000" yWindow="3880" windowWidth="28240" windowHeight="16560" xr2:uid="{403CBBCA-A596-E442-9191-812ECD39B1A7}"/>
   </bookViews>
@@ -117,16 +117,16 @@
     <t>Das Experiment: Alternativerklärungen und Kontrollbedingungen</t>
   </si>
   <si>
-    <t>Wie ist Psychologie als Wissenschaft möglich? - 1</t>
-  </si>
-  <si>
-    <t>Wie ist Psychologie als Wissenschaft möglich? - 2</t>
-  </si>
-  <si>
     <t>Freie Spitze und Fragen</t>
   </si>
   <si>
     <t>Quellen</t>
+  </si>
+  <si>
+    <t>Wissenschafts- und Erkenntnistheorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist Psychologie als Wissenschaft möglich? </t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -516,7 +516,7 @@
         <v>44846</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -527,7 +527,7 @@
         <v>44853</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -680,7 +680,7 @@
         <v>44958</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">

--- a/Einführung in die Forschungsmethoden der Psychologie und Psychotherapie_Termine.xlsx
+++ b/Einführung in die Forschungsmethoden der Psychologie und Psychotherapie_Termine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephangoerigk/Desktop/Universität/CFH/Lehre/Bachelor/Einführung in die Forschungsmethoden der Psychologie und Psychotherapie/EFPP_Folien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF564A1-F468-6E4E-A341-B2B2212CC92F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0A4BA5-85F7-464C-B4A7-835370A7D9F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38000" yWindow="3880" windowWidth="28240" windowHeight="16560" xr2:uid="{403CBBCA-A596-E442-9191-812ECD39B1A7}"/>
+    <workbookView xWindow="47840" yWindow="3480" windowWidth="28240" windowHeight="16560" xr2:uid="{403CBBCA-A596-E442-9191-812ECD39B1A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
